--- a/proj1/marksheets/1401CS52.xlsx
+++ b/proj1/marksheets/1401CS52.xlsx
@@ -645,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
       <c r="D11" s="7" t="n">
         <v>0</v>
@@ -662,12 +662,12 @@
         <v>95</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="D12" s="7" t="n"/>
       <c r="E12" s="8" t="inlineStr">
         <is>
-          <t>85.0/140</t>
+          <t>91/140</t>
         </is>
       </c>
     </row>

--- a/proj1/marksheets/1401CS52.xlsx
+++ b/proj1/marksheets/1401CS52.xlsx
@@ -667,7 +667,7 @@
       <c r="D12" s="7" t="n"/>
       <c r="E12" s="8" t="inlineStr">
         <is>
-          <t>91/140</t>
+          <t>95 / 140</t>
         </is>
       </c>
     </row>
